--- a/backend/api/servicehandler/services/Mental Health Provider.xlsx
+++ b/backend/api/servicehandler/services/Mental Health Provider.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/behnaz_merikhi_utoronto_ca/Documents/ASD Project/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dextertam/Documents/UofT/Y3/_Extracurricular/AutismCanadaAI/backend/api/servicehandler/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{58F23EC6-F8EE-4036-91AB-9E4D365E6791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F0C0DC-4D68-0A4F-9FD0-FF685D8170B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="-28140" windowWidth="25380" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1226">
   <si>
     <t>https://www.myautismguide.ca/mag/content/provider/tactics-resource-services?nid=578741</t>
   </si>
@@ -56,9 +55,6 @@
     <t>1939 St-Joseph Blvd Orleans , ONK1C 2E2</t>
   </si>
   <si>
-    <t>613-834-2229</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/access-community-therapists-ltd?nid=561436</t>
   </si>
   <si>
@@ -92,9 +88,6 @@
     <t>36 antares Drive Ottawa, ONK2E 7W5</t>
   </si>
   <si>
-    <t>343-887-2287</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/adrie-anne-gamble-psychotherapist?nid=581371</t>
   </si>
   <si>
@@ -362,9 +355,6 @@
     <t>3219 Yonge Street Suite 231 Toronto, ONM4N 3S1</t>
   </si>
   <si>
-    <t>416-651-4037</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/aspire-special-needs-resource-centre?nid=558816</t>
   </si>
   <si>
@@ -479,9 +469,6 @@
     <t>66 Calder St Shediac, NBE4P 1K8</t>
   </si>
   <si>
-    <t>506-533-9100</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/beaverlodge-community-health-services?nid=558861</t>
   </si>
   <si>
@@ -722,9 +709,6 @@
     <t>33 Russell Street Toronto, ONM5S 2S1</t>
   </si>
   <si>
-    <t>1(800) 463-2338</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/campbell-fairweather-psychology-group?nid=562211</t>
   </si>
   <si>
@@ -1037,9 +1021,6 @@
     <t>50 Union Street  Grand Falls-Windsor, NLA2A 2E1</t>
   </si>
   <si>
-    <t>(705)8331441</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/central-ontario-psychology?nid=571251</t>
   </si>
   <si>
@@ -1139,9 +1120,6 @@
     <t>700 - 1509 Centre St SW Calgary, ABT2G 2E6</t>
   </si>
   <si>
-    <t>403-283-5580</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/centre-hospitalier-pierre-janet?nid=579151</t>
   </si>
   <si>
@@ -1211,18 +1189,12 @@
     <t>790 BAY St., Suite 520  Toronto, ONM5G 1N8</t>
   </si>
   <si>
-    <t>18557792347</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/cfir-centre-interpersonal-relationships-0?nid=571301</t>
   </si>
   <si>
     <t>600 - 267 O'Connor St. Ottawa, ONK2P 1V3</t>
   </si>
   <si>
-    <t>18557792348</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/charmaine-miranda?nid=564406</t>
   </si>
   <si>
@@ -1337,9 +1309,6 @@
     <t>46 St. Clair Gardens Toronto, ONM6E 4B8</t>
   </si>
   <si>
-    <t>4166031827 x311</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/children-differences?nid=559221</t>
   </si>
   <si>
@@ -1385,9 +1354,6 @@
     <t>3 Applewood Dr., Suite 300 Belleville, ONK8P 4E3</t>
   </si>
   <si>
-    <t>613-969-3100</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/childrens-mental-health-services?nid=571441</t>
   </si>
   <si>
@@ -1541,9 +1507,6 @@
     <t>300 John Street Suite #606 Thornhill, ONL3T 5W4</t>
   </si>
   <si>
-    <t>(905) (709)1862</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/clinique-autisme-asperger-de-montreal?nid=579261</t>
   </si>
   <si>
@@ -1589,9 +1552,6 @@
     <t>55, rue Saint-Joseph, 2e étage  Sainte-Thérèse, QCJ7E 4Y5</t>
   </si>
   <si>
-    <t>50 430-3702</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/clinique-externe-et-hopital-de-jour-de-psychiatrie-de-la-mrc?nid=579281</t>
   </si>
   <si>
@@ -1739,9 +1699,6 @@
     <t>302 - 1720 Grant Street Vancouver, BCV5L 4Y7</t>
   </si>
   <si>
-    <t>(604) (709)3515</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/comprehensive-psychological-services?nid=567461</t>
   </si>
   <si>
@@ -1832,9 +1789,6 @@
     <t>11-34 Carlton Street Winnipeg, MB Winnipeg , MB</t>
   </si>
   <si>
-    <t>2045050325 x100</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/cranbrook-developmental-disability-mental-health-services?nid=562606</t>
   </si>
   <si>
@@ -2051,9 +2005,6 @@
     <t>Calgary, AB</t>
   </si>
   <si>
-    <t>403 804 9496</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/dr-wong-associates?nid=562731</t>
   </si>
   <si>
@@ -2075,9 +2026,6 @@
     <t>66 Beaver Bend Crescent Toronto, ONM9B 5R3</t>
   </si>
   <si>
-    <t>647-973-9664</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/dr-george-mallia-clinical-psychologist?nid=588286</t>
   </si>
   <si>
@@ -2087,9 +2035,6 @@
     <t>151 Great George St Charlottetown, PEC1A 4K8</t>
   </si>
   <si>
-    <t>902-367-4446</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/dr-michelle-sala-and-associates?nid=572386</t>
   </si>
   <si>
@@ -2123,9 +2068,6 @@
     <t>915-850 West Hastings Street Vancouver, BCV6C 1E1</t>
   </si>
   <si>
-    <t>604-685-7722</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/dr-valerie-corkum-associates?nid=568506</t>
   </si>
   <si>
@@ -2147,9 +2089,6 @@
     <t>655 Riddell Road Orangeville, ONL9W 4Z5</t>
   </si>
   <si>
-    <t>5199411530 x278</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/excel-society?nid=559511</t>
   </si>
   <si>
@@ -2282,9 +2221,6 @@
     <t>356, Queen Street Fredericton, NBE38 1B2</t>
   </si>
   <si>
-    <t>506-458-8211</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/family-kinnections-collingwood?nid=572696</t>
   </si>
   <si>
@@ -2294,9 +2230,6 @@
     <t>35 4th St E Collingwood, ONL9Y 1T2</t>
   </si>
   <si>
-    <t>888-530-8682</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/family-pluslife-solutions?nid=567491</t>
   </si>
   <si>
@@ -2486,9 +2419,6 @@
     <t>PO Box 262 Harrison Hot Springs, BCV0M 1K0</t>
   </si>
   <si>
-    <t>888-508-3028 ext 101</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/foothills-academy-society?nid=559536</t>
   </si>
   <si>
@@ -2840,9 +2770,6 @@
     <t>#250, 3115-12 street NE Calgary, ABT2E 7J2</t>
   </si>
   <si>
-    <t>403-813-4096</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/innerlinks?nid=573371</t>
   </si>
   <si>
@@ -2963,9 +2890,6 @@
     <t>175 Mayfair Ave Winnipeg, MBR3L 0A1</t>
   </si>
   <si>
-    <t>204-996-1547</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/inspire-community-outreach-inc?nid=566906</t>
   </si>
   <si>
@@ -2996,9 +2920,6 @@
     <t>10905 Henri-Bourassa Blvd. East  Montreal, QCH1C 1H1</t>
   </si>
   <si>
-    <t>514 648-8461</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/institut-universitaire-en-sante-mentale-de-montreal?nid=579701</t>
   </si>
   <si>
@@ -3386,18 +3307,12 @@
     <t>5106 Ridgewell Road Burlington, ONL7L 6N9</t>
   </si>
   <si>
-    <t>905-407-1494</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/masterworx-music-therapy-1?nid=588521</t>
   </si>
   <si>
     <t>MasterworX Music Therapy</t>
   </si>
   <si>
-    <t>403-999-1497</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/north-eastern-ontario-family-childrens-services?nid=588571</t>
   </si>
   <si>
@@ -3407,9 +3322,6 @@
     <t>Cochrane, ON</t>
   </si>
   <si>
-    <t>705-360-7100</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/oap-provider-list?nid=593141</t>
   </si>
   <si>
@@ -3425,9 +3337,6 @@
     <t>12 Folkins Drive Sackville, NBE4L 1H9</t>
   </si>
   <si>
-    <t>506-536-4565</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/ottawa-art-therapy-inc?nid=588596</t>
   </si>
   <si>
@@ -3437,9 +3346,6 @@
     <t>12-52 Antares Ottawa, ONK2E 7Z1</t>
   </si>
   <si>
-    <t>(613)212-4828</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/parley-services-limited?nid=588611</t>
   </si>
   <si>
@@ -3449,9 +3355,6 @@
     <t>Suite 1703, 805 West Broadway Vancouver, BCV5Z 1K1</t>
   </si>
   <si>
-    <t>604-868-5586</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/paula-jurczak-counseling-services?nid=588616</t>
   </si>
   <si>
@@ -3461,9 +3364,6 @@
     <t>Richmond , BC</t>
   </si>
   <si>
-    <t>604-836-7714</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/pivot-point-family-growth-centre-inc-11?nid=588626</t>
   </si>
   <si>
@@ -3473,9 +3373,6 @@
     <t>#24 15515 24th Avenue Surrey, BCV4A 2J4</t>
   </si>
   <si>
-    <t>604.531.4544</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/proset-inclusive-tennis-1?nid=588651</t>
   </si>
   <si>
@@ -3485,9 +3382,6 @@
     <t>100 rue Poplar  Gatineau, QCJ8P 5E4</t>
   </si>
   <si>
-    <t>438-321-1564</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/society-treatment-autism-counselling-autistic-individuals-and-children-siblings-autism?nid=592136</t>
   </si>
   <si>
@@ -3497,9 +3391,6 @@
     <t>404 94 Avenue Southeast Calgary, ABT2J 0R1</t>
   </si>
   <si>
-    <t>403.253.2291</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/sooke-family-resource-society-2?nid=588716</t>
   </si>
   <si>
@@ -3509,9 +3400,6 @@
     <t>100-6672 Wadams Way  Sooke, BCV9Z 0H3</t>
   </si>
   <si>
-    <t>250-642-5152</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/stepping-stones-counselling-services-inc?nid=592306</t>
   </si>
   <si>
@@ -3545,9 +3433,6 @@
     <t>436 Queen Street Newmarket, ONL3Y 2H2</t>
   </si>
   <si>
-    <t>416-508-1780</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/terrace-and-district-community-services-society?nid=588781</t>
   </si>
   <si>
@@ -3557,18 +3442,12 @@
     <t>#200 3219 Eby Street  Terrace, BCV8G 4R3</t>
   </si>
   <si>
-    <t>250-635-3178</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/adhd-spectrum-centre-guelph-ottawa?nid=589271</t>
   </si>
   <si>
     <t>The ADHD &amp; Spectrum Centre - Guelph &amp; Ottawa</t>
   </si>
   <si>
-    <t>519.830.1423</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/health-sprout?nid=589296</t>
   </si>
   <si>
@@ -3608,9 +3487,6 @@
     <t>32 Woodstone Dr East St. Paul, MBR2E 0M5</t>
   </si>
   <si>
-    <t>204-807-6779</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/woods-homes-4?nid=585356</t>
   </si>
   <si>
@@ -3620,9 +3496,6 @@
     <t>102 McConachie Cres. Fort McMurray, ABT9K 1T1</t>
   </si>
   <si>
-    <t>780-750-2252</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/woodview-mental-health-autism-services?nid=578426</t>
   </si>
   <si>
@@ -3632,9 +3505,6 @@
     <t>50 Fairwood Place W Burlington, ONL7T 1E5</t>
   </si>
   <si>
-    <t>905 689 4727</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/woodview-mental-health-and-autism-services?nid=578486</t>
   </si>
   <si>
@@ -3644,9 +3514,6 @@
     <t>643 Park Road North Brantford, ONN3T 5L8</t>
   </si>
   <si>
-    <t>519 752 5308</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/yellowhead-community-services-society?nid=566646</t>
   </si>
   <si>
@@ -3714,6 +3581,123 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>(613) 834-2229</t>
+  </si>
+  <si>
+    <t>(343) 887-2287</t>
+  </si>
+  <si>
+    <t>(416) 651-4037</t>
+  </si>
+  <si>
+    <t>(800) 463-2338</t>
+  </si>
+  <si>
+    <t>(705) 833-1441</t>
+  </si>
+  <si>
+    <t>(403) 283-5580</t>
+  </si>
+  <si>
+    <t>(855) 779-2347</t>
+  </si>
+  <si>
+    <t>(855) 779-2348</t>
+  </si>
+  <si>
+    <t>(416) 603-1827-311</t>
+  </si>
+  <si>
+    <t>(613) 969-3100</t>
+  </si>
+  <si>
+    <t>(905) 709-1862</t>
+  </si>
+  <si>
+    <t>(450) 430-3702</t>
+  </si>
+  <si>
+    <t>(604) 709-3515</t>
+  </si>
+  <si>
+    <t>(204) 505-0325-100</t>
+  </si>
+  <si>
+    <t>(403) 804-9496</t>
+  </si>
+  <si>
+    <t>(647) 973-9664</t>
+  </si>
+  <si>
+    <t>(604) 685-7722</t>
+  </si>
+  <si>
+    <t>(519) 941-1530-278</t>
+  </si>
+  <si>
+    <t>(888) 530-8682</t>
+  </si>
+  <si>
+    <t>(888) 508-3028-101</t>
+  </si>
+  <si>
+    <t>(514) 648-8461</t>
+  </si>
+  <si>
+    <t>(905) 407-1494</t>
+  </si>
+  <si>
+    <t>(403) 999-1497</t>
+  </si>
+  <si>
+    <t>(705) 360-7100</t>
+  </si>
+  <si>
+    <t>(506) 536-4565</t>
+  </si>
+  <si>
+    <t>(613) 212-4828</t>
+  </si>
+  <si>
+    <t>(604) 868-5586</t>
+  </si>
+  <si>
+    <t>(604) 836-7714</t>
+  </si>
+  <si>
+    <t>(604) 531-4544</t>
+  </si>
+  <si>
+    <t>(438) 321-1564</t>
+  </si>
+  <si>
+    <t>(403) 253-2291</t>
+  </si>
+  <si>
+    <t>(250) 642-5152</t>
+  </si>
+  <si>
+    <t>(416) 508-1780</t>
+  </si>
+  <si>
+    <t>(250) 635-3178</t>
+  </si>
+  <si>
+    <t>(519) 830-1423</t>
+  </si>
+  <si>
+    <t>(204) 807-6779</t>
+  </si>
+  <si>
+    <t>(780) 750-2252</t>
+  </si>
+  <si>
+    <t>(905) 689-4727</t>
+  </si>
+  <si>
+    <t>(519) 752-5308</t>
   </si>
 </sst>
 </file>
@@ -3757,9 +3741,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4101,33 +4086,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1227</v>
+        <v>1183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1228</v>
+        <v>1184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1229</v>
+        <v>1185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4141,7 +4126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4155,7 +4140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4166,4599 +4151,4599 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>90</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>93</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>96</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>100</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>103</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>104</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>108</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
         <v>110</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>111</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" t="s">
         <v>114</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>115</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>119</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>123</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
         <v>124</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>126</v>
       </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>127</v>
       </c>
-      <c r="D36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D37" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>130</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>133</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
         <v>134</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>136</v>
       </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>139</v>
       </c>
-      <c r="B40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
         <v>140</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
         <v>144</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>146</v>
       </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
         <v>147</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>149</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>150</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>151</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>153</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>154</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>155</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>157</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>158</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>159</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>161</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>162</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>163</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>165</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>166</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>167</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>169</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>170</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>171</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>173</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>174</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>175</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>177</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>178</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>179</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>181</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>182</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>183</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>185</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>186</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>187</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>189</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>190</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>191</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>193</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>194</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>195</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>197</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" t="s">
         <v>198</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>199</v>
       </c>
-      <c r="D55" t="s">
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>201</v>
       </c>
-      <c r="B56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B58" t="s">
         <v>202</v>
       </c>
-      <c r="D56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C58" t="s">
         <v>203</v>
       </c>
-      <c r="B57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>204</v>
       </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59" t="s">
         <v>205</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C59" t="s">
         <v>206</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D59" t="s">
         <v>207</v>
       </c>
-      <c r="D58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>208</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>209</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>210</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>212</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>213</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>214</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>216</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>217</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>218</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>220</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>221</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>222</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>224</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>225</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>226</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" t="s">
         <v>228</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D65" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>229</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B66" t="s">
         <v>230</v>
       </c>
-      <c r="D64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C66" t="s">
         <v>231</v>
       </c>
-      <c r="B65" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
         <v>232</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
         <v>234</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C67" t="s">
         <v>235</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D67" t="s">
         <v>236</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B68" t="s">
         <v>238</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C68" t="s">
         <v>239</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D68" t="s">
         <v>240</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B69" t="s">
         <v>242</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C69" t="s">
         <v>243</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D69" t="s">
         <v>244</v>
       </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" t="s">
         <v>246</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D70" t="s">
         <v>247</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>248</v>
       </c>
-      <c r="D69" t="s">
+      <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D71" t="s">
         <v>250</v>
       </c>
-      <c r="B70" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>251</v>
       </c>
-      <c r="D70" t="s">
+      <c r="B72" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C72" t="s">
         <v>253</v>
       </c>
-      <c r="B71" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D72" t="s">
         <v>254</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B73" t="s">
         <v>256</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
         <v>257</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D73" t="s">
         <v>258</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
         <v>260</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C74" t="s">
         <v>261</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D74" t="s">
         <v>262</v>
       </c>
-      <c r="D73" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B75" t="s">
         <v>264</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C75" t="s">
         <v>265</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D75" t="s">
         <v>266</v>
       </c>
-      <c r="D74" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B76" t="s">
         <v>268</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C76" t="s">
         <v>269</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D76" t="s">
         <v>270</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B77" t="s">
         <v>272</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C77" t="s">
         <v>273</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D77" t="s">
         <v>274</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B78" t="s">
         <v>276</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C78" t="s">
         <v>277</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D78" t="s">
         <v>278</v>
       </c>
-      <c r="D77" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B79" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" t="s">
         <v>280</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D79" t="s">
         <v>281</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>282</v>
       </c>
-      <c r="D78" t="s">
+      <c r="B80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D80" t="s">
         <v>284</v>
       </c>
-      <c r="B79" t="s">
-        <v>281</v>
-      </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>285</v>
       </c>
-      <c r="D79" t="s">
+      <c r="B81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="D81" t="s">
         <v>287</v>
       </c>
-      <c r="B80" t="s">
-        <v>281</v>
-      </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>288</v>
       </c>
-      <c r="D80" t="s">
+      <c r="B82" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C82" t="s">
         <v>290</v>
       </c>
-      <c r="B81" t="s">
-        <v>281</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D82" t="s">
         <v>291</v>
       </c>
-      <c r="D81" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B83" t="s">
         <v>293</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C83" t="s">
         <v>294</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D83" t="s">
         <v>295</v>
       </c>
-      <c r="D82" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B84" t="s">
         <v>297</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C84" t="s">
         <v>298</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D84" t="s">
         <v>299</v>
       </c>
-      <c r="D83" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B85" t="s">
         <v>301</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C85" t="s">
         <v>302</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D85" t="s">
         <v>303</v>
       </c>
-      <c r="D84" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B86" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" t="s">
         <v>305</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D86" t="s">
         <v>306</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>307</v>
       </c>
-      <c r="D85" t="s">
+      <c r="B87" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="D87" t="s">
         <v>309</v>
       </c>
-      <c r="B86" t="s">
-        <v>306</v>
-      </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>310</v>
       </c>
-      <c r="D86" t="s">
+      <c r="B88" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="D88" t="s">
         <v>312</v>
       </c>
-      <c r="B87" t="s">
-        <v>306</v>
-      </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>313</v>
       </c>
-      <c r="D87" t="s">
+      <c r="B89" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="D89" t="s">
         <v>315</v>
       </c>
-      <c r="B88" t="s">
-        <v>306</v>
-      </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>316</v>
       </c>
-      <c r="D88" t="s">
+      <c r="B90" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C90" t="s">
         <v>318</v>
       </c>
-      <c r="B89" t="s">
-        <v>306</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D90" t="s">
         <v>319</v>
       </c>
-      <c r="D89" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
         <v>321</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C91" t="s">
         <v>322</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D91" t="s">
         <v>323</v>
       </c>
-      <c r="D90" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B92" t="s">
+        <v>321</v>
+      </c>
+      <c r="C92" t="s">
         <v>325</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D92" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>326</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B93" t="s">
         <v>327</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C93" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="D93" t="s">
         <v>329</v>
       </c>
-      <c r="B92" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>330</v>
       </c>
-      <c r="D92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B94" t="s">
         <v>331</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C94" t="s">
         <v>332</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D94" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>333</v>
       </c>
-      <c r="D93" t="s">
+      <c r="B95" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C95" t="s">
         <v>335</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>336</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B96" t="s">
         <v>337</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C96" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D96" t="s">
         <v>339</v>
       </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>340</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B97" t="s">
         <v>341</v>
       </c>
-      <c r="D95" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C97" t="s">
         <v>342</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D97" t="s">
         <v>343</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>344</v>
       </c>
-      <c r="D96" t="s">
+      <c r="B98" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C98" t="s">
         <v>346</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D98" t="s">
         <v>347</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>348</v>
       </c>
-      <c r="D97" t="s">
+      <c r="B99" t="s">
+        <v>345</v>
+      </c>
+      <c r="C99" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="D99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>350</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
+        <v>345</v>
+      </c>
+      <c r="C100" t="s">
         <v>351</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D100" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>352</v>
       </c>
-      <c r="D98" t="s">
+      <c r="B101" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C101" t="s">
         <v>354</v>
       </c>
-      <c r="B99" t="s">
-        <v>351</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>355</v>
       </c>
-      <c r="D99" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B102" t="s">
         <v>356</v>
       </c>
-      <c r="B100" t="s">
-        <v>351</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>357</v>
       </c>
-      <c r="D100" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="D102" t="s">
         <v>358</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>359</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B103" t="s">
         <v>360</v>
       </c>
-      <c r="D101" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C103" t="s">
         <v>361</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D103" t="s">
         <v>362</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>363</v>
       </c>
-      <c r="D102" t="s">
+      <c r="B104" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="C104" t="s">
         <v>365</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D104" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>366</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B105" t="s">
         <v>367</v>
       </c>
-      <c r="D103" t="s">
+      <c r="C105" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="D105" t="s">
         <v>369</v>
       </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>370</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B106" t="s">
         <v>371</v>
       </c>
-      <c r="D104" t="s">
+      <c r="C106" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="D106" t="s">
         <v>373</v>
       </c>
-      <c r="B105" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>374</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B107" t="s">
         <v>375</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C107" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="D107" t="s">
         <v>377</v>
       </c>
-      <c r="B106" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>378</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B108" t="s">
         <v>379</v>
       </c>
-      <c r="D106" t="s">
+      <c r="C108" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="D108" t="s">
         <v>381</v>
       </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>382</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B109" t="s">
         <v>383</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C109" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D109" t="s">
         <v>385</v>
       </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>386</v>
       </c>
-      <c r="C108" t="s">
+      <c r="B110" t="s">
         <v>387</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C110" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="D110" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>389</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
+        <v>387</v>
+      </c>
+      <c r="C111" t="s">
         <v>390</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D111" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>391</v>
       </c>
-      <c r="D109" t="s">
+      <c r="B112" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C112" t="s">
         <v>393</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>394</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B113" t="s">
         <v>395</v>
       </c>
-      <c r="D110" t="s">
+      <c r="C113" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="D113" t="s">
         <v>397</v>
       </c>
-      <c r="B111" t="s">
-        <v>394</v>
-      </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>398</v>
       </c>
-      <c r="D111" t="s">
+      <c r="B114" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C114" t="s">
         <v>400</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D114" t="s">
         <v>401</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>402</v>
       </c>
-      <c r="D112" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B115" t="s">
         <v>403</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C115" t="s">
         <v>404</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D115" t="s">
         <v>405</v>
       </c>
-      <c r="D113" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B116" t="s">
         <v>407</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C116" t="s">
         <v>408</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D116" t="s">
         <v>409</v>
       </c>
-      <c r="D114" t="s">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B117" t="s">
         <v>411</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C117" t="s">
         <v>412</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D117" t="s">
         <v>413</v>
       </c>
-      <c r="D115" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B118" t="s">
         <v>415</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C118" t="s">
         <v>416</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D118" t="s">
         <v>417</v>
       </c>
-      <c r="D116" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B119" t="s">
         <v>419</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C119" t="s">
         <v>420</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D119" t="s">
         <v>421</v>
       </c>
-      <c r="D117" t="s">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B120" t="s">
         <v>423</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C120" t="s">
         <v>424</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D120" t="s">
         <v>425</v>
       </c>
-      <c r="D118" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B121" t="s">
         <v>427</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C121" t="s">
         <v>428</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D121" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>429</v>
       </c>
-      <c r="D119" t="s">
+      <c r="B122" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C122" t="s">
         <v>431</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D122" t="s">
         <v>432</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>433</v>
       </c>
-      <c r="D120" t="s">
+      <c r="B123" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C123" t="s">
         <v>435</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D123" t="s">
         <v>436</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>437</v>
       </c>
-      <c r="D121" t="s">
+      <c r="B124" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="C124" t="s">
         <v>439</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D124" t="s">
         <v>440</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>441</v>
       </c>
-      <c r="D122" t="s">
+      <c r="B125" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C125" t="s">
         <v>443</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D125" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>444</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B126" t="s">
         <v>445</v>
       </c>
-      <c r="D123" t="s">
+      <c r="C126" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="D126" t="s">
         <v>447</v>
       </c>
-      <c r="B124" t="s">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>448</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B127" t="s">
+        <v>445</v>
+      </c>
+      <c r="C127" t="s">
         <v>449</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D127" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>451</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B128" t="s">
+        <v>445</v>
+      </c>
+      <c r="C128" t="s">
         <v>452</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D128" t="s">
         <v>453</v>
       </c>
-      <c r="D125" t="s">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B129" t="s">
+        <v>445</v>
+      </c>
+      <c r="C129" t="s">
         <v>455</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D129" t="s">
         <v>456</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>457</v>
       </c>
-      <c r="D126" t="s">
+      <c r="B130" t="s">
+        <v>445</v>
+      </c>
+      <c r="C130" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="D130" t="s">
         <v>459</v>
       </c>
-      <c r="B127" t="s">
-        <v>456</v>
-      </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>460</v>
       </c>
-      <c r="D127" t="s">
+      <c r="B131" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C131" t="s">
         <v>462</v>
       </c>
-      <c r="B128" t="s">
-        <v>456</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D131" t="s">
         <v>463</v>
       </c>
-      <c r="D128" t="s">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B132" t="s">
         <v>465</v>
       </c>
-      <c r="B129" t="s">
-        <v>456</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="C132" t="s">
         <v>466</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D132" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>468</v>
       </c>
-      <c r="B130" t="s">
-        <v>456</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B133" t="s">
         <v>469</v>
       </c>
-      <c r="D130" t="s">
+      <c r="C133" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="D133" t="s">
         <v>471</v>
       </c>
-      <c r="B131" t="s">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>472</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B134" t="s">
         <v>473</v>
       </c>
-      <c r="D131" t="s">
+      <c r="C134" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="D134" t="s">
         <v>475</v>
       </c>
-      <c r="B132" t="s">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>476</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B135" t="s">
         <v>477</v>
       </c>
-      <c r="D132" t="s">
+      <c r="C135" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="D135" t="s">
         <v>479</v>
       </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>480</v>
       </c>
-      <c r="C133" t="s">
+      <c r="B136" t="s">
         <v>481</v>
       </c>
-      <c r="D133" t="s">
+      <c r="C136" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="D136" t="s">
         <v>483</v>
       </c>
-      <c r="B134" t="s">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>484</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B137" t="s">
         <v>485</v>
       </c>
-      <c r="D134" t="s">
+      <c r="C137" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="D137" t="s">
         <v>487</v>
       </c>
-      <c r="B135" t="s">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>488</v>
       </c>
-      <c r="C135" t="s">
+      <c r="B138" t="s">
         <v>489</v>
       </c>
-      <c r="D135" t="s">
+      <c r="C138" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="D138" t="s">
         <v>491</v>
       </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>492</v>
       </c>
-      <c r="C136" t="s">
+      <c r="B139" t="s">
         <v>493</v>
       </c>
-      <c r="D136" t="s">
+      <c r="C139" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="D139" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>495</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B140" t="s">
         <v>496</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C140" t="s">
         <v>497</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D140" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>499</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B141" t="s">
         <v>500</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C141" t="s">
         <v>501</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D141" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>503</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B142" t="s">
         <v>504</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C142" t="s">
         <v>505</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D142" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>507</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B143" t="s">
         <v>508</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C143" t="s">
         <v>509</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D143" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B144" t="s">
         <v>511</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C144" t="s">
         <v>512</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D144" t="s">
         <v>513</v>
       </c>
-      <c r="D141" t="s">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B145" t="s">
         <v>515</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C145" t="s">
         <v>516</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D145" t="s">
         <v>517</v>
       </c>
-      <c r="D142" t="s">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B146" t="s">
+        <v>515</v>
+      </c>
+      <c r="C146" t="s">
         <v>519</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D146" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>520</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B147" t="s">
+        <v>515</v>
+      </c>
+      <c r="C147" t="s">
         <v>521</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D147" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B148" t="s">
+        <v>515</v>
+      </c>
+      <c r="C148" t="s">
         <v>523</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D148" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>524</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B149" t="s">
         <v>525</v>
       </c>
-      <c r="D144" t="s">
+      <c r="C149" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="D149" t="s">
         <v>527</v>
       </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>528</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B150" t="s">
         <v>529</v>
       </c>
-      <c r="D145" t="s">
+      <c r="C150" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="D150" t="s">
         <v>531</v>
       </c>
-      <c r="B146" t="s">
-        <v>528</v>
-      </c>
-      <c r="C146" t="s">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>532</v>
       </c>
-      <c r="D146" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B151" t="s">
         <v>533</v>
       </c>
-      <c r="B147" t="s">
-        <v>528</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="C151" t="s">
         <v>534</v>
       </c>
-      <c r="D147" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="D151" t="s">
         <v>535</v>
       </c>
-      <c r="B148" t="s">
-        <v>528</v>
-      </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>536</v>
       </c>
-      <c r="D148" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B152" t="s">
         <v>537</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C152" t="s">
         <v>538</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D152" t="s">
         <v>539</v>
       </c>
-      <c r="D149" t="s">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B153" t="s">
         <v>541</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C153" t="s">
         <v>542</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D153" t="s">
         <v>543</v>
       </c>
-      <c r="D150" t="s">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B154" t="s">
         <v>545</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C154" t="s">
         <v>546</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D154" t="s">
         <v>547</v>
       </c>
-      <c r="D151" t="s">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B155" t="s">
         <v>549</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C155" t="s">
         <v>550</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D155" t="s">
         <v>551</v>
       </c>
-      <c r="D152" t="s">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B156" t="s">
         <v>553</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C156" t="s">
         <v>554</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D156" t="s">
         <v>555</v>
       </c>
-      <c r="D153" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B157" t="s">
         <v>557</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C157" t="s">
         <v>558</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D157" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>559</v>
       </c>
-      <c r="D154" t="s">
+      <c r="B158" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="C158" t="s">
         <v>561</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D158" t="s">
         <v>562</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>563</v>
       </c>
-      <c r="D155" t="s">
+      <c r="B159" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="C159" t="s">
         <v>565</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D159" t="s">
         <v>566</v>
       </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>567</v>
       </c>
-      <c r="D156" t="s">
+      <c r="B160" t="s">
+        <v>564</v>
+      </c>
+      <c r="C160" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="D160" t="s">
         <v>569</v>
       </c>
-      <c r="B157" t="s">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>570</v>
       </c>
-      <c r="C157" t="s">
+      <c r="B161" t="s">
         <v>571</v>
       </c>
-      <c r="D157" t="s">
+      <c r="C161" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="D161" t="s">
         <v>573</v>
       </c>
-      <c r="B158" t="s">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>574</v>
       </c>
-      <c r="C158" t="s">
+      <c r="B162" t="s">
         <v>575</v>
       </c>
-      <c r="D158" t="s">
+      <c r="C162" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="D162" t="s">
         <v>577</v>
       </c>
-      <c r="B159" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>578</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B163" t="s">
         <v>579</v>
       </c>
-      <c r="D159" t="s">
+      <c r="C163" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="D163" t="s">
         <v>581</v>
       </c>
-      <c r="B160" t="s">
-        <v>578</v>
-      </c>
-      <c r="C160" t="s">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>582</v>
       </c>
-      <c r="D160" t="s">
+      <c r="B164" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="C164" t="s">
         <v>584</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D164" t="s">
         <v>585</v>
       </c>
-      <c r="C161" t="s">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>586</v>
       </c>
-      <c r="D161" t="s">
+      <c r="B165" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="C165" t="s">
         <v>588</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D165" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>589</v>
       </c>
-      <c r="C162" t="s">
+      <c r="B166" t="s">
         <v>590</v>
       </c>
-      <c r="D162" t="s">
+      <c r="C166" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="D166" t="s">
         <v>592</v>
       </c>
-      <c r="B163" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>593</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B167" t="s">
         <v>594</v>
       </c>
-      <c r="D163" t="s">
+      <c r="C167" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="D167" t="s">
         <v>596</v>
       </c>
-      <c r="B164" t="s">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>597</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B168" t="s">
         <v>598</v>
       </c>
-      <c r="D164" t="s">
+      <c r="C168" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="D168" t="s">
         <v>600</v>
       </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>601</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B169" t="s">
         <v>602</v>
       </c>
-      <c r="D165" t="s">
+      <c r="C169" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="D169" t="s">
         <v>604</v>
       </c>
-      <c r="B166" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>605</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B170" t="s">
         <v>606</v>
       </c>
-      <c r="D166" t="s">
+      <c r="C170" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="D170" t="s">
         <v>608</v>
       </c>
-      <c r="B167" t="s">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>609</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B171" t="s">
         <v>610</v>
       </c>
-      <c r="D167" t="s">
+      <c r="C171" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="D171" t="s">
         <v>612</v>
       </c>
-      <c r="B168" t="s">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>613</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B172" t="s">
         <v>614</v>
       </c>
-      <c r="D168" t="s">
+      <c r="C172" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="D172" t="s">
         <v>616</v>
       </c>
-      <c r="B169" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>617</v>
       </c>
-      <c r="C169" t="s">
+      <c r="B173" t="s">
         <v>618</v>
       </c>
-      <c r="D169" t="s">
+      <c r="C173" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="D173" t="s">
         <v>620</v>
       </c>
-      <c r="B170" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>621</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B174" t="s">
         <v>622</v>
       </c>
-      <c r="D170" t="s">
+      <c r="C174" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="D174" t="s">
         <v>624</v>
       </c>
-      <c r="B171" t="s">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>625</v>
       </c>
-      <c r="C171" t="s">
+      <c r="B175" t="s">
         <v>626</v>
       </c>
-      <c r="D171" t="s">
+      <c r="C175" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="D175" t="s">
         <v>628</v>
       </c>
-      <c r="B172" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>629</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B176" t="s">
         <v>630</v>
       </c>
-      <c r="D172" t="s">
+      <c r="C176" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="D176" t="s">
         <v>632</v>
       </c>
-      <c r="B173" t="s">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>633</v>
       </c>
-      <c r="C173" t="s">
+      <c r="B177" t="s">
+        <v>630</v>
+      </c>
+      <c r="C177" t="s">
         <v>634</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D177" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B178" t="s">
         <v>636</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C178" t="s">
         <v>637</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D178" t="s">
         <v>638</v>
       </c>
-      <c r="D174" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B179" t="s">
         <v>640</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C179" t="s">
         <v>641</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D179" t="s">
         <v>642</v>
       </c>
-      <c r="D175" t="s">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B180" t="s">
         <v>644</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C180" t="s">
         <v>645</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D180" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>646</v>
       </c>
-      <c r="D176" t="s">
+      <c r="B181" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C181" t="s">
         <v>648</v>
       </c>
-      <c r="B177" t="s">
-        <v>645</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D181" t="s">
         <v>649</v>
       </c>
-      <c r="D177" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>650</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B182" t="s">
         <v>651</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C182" t="s">
         <v>652</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D182" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>654</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B183" t="s">
         <v>655</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C183" t="s">
         <v>656</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D183" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>658</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B184" t="s">
         <v>659</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C184" t="s">
         <v>660</v>
       </c>
-      <c r="D180" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="D184" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>661</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B185" t="s">
         <v>662</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C185" t="s">
         <v>663</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D185" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>665</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B186" t="s">
         <v>666</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C186" t="s">
         <v>667</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D186" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B187" t="s">
         <v>669</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C187" t="s">
         <v>670</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D187" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>671</v>
       </c>
-      <c r="D183" t="s">
+      <c r="B188" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C188" t="s">
         <v>673</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D188" t="s">
         <v>674</v>
       </c>
-      <c r="C184" t="s">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>675</v>
       </c>
-      <c r="D184" t="s">
+      <c r="B189" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="C189" t="s">
         <v>677</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D189" t="s">
         <v>678</v>
       </c>
-      <c r="C185" t="s">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>679</v>
       </c>
-      <c r="D185" t="s">
+      <c r="B190" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C190" t="s">
         <v>681</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D190" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>682</v>
       </c>
-      <c r="C186" t="s">
+      <c r="B191" t="s">
         <v>683</v>
       </c>
-      <c r="D186" t="s">
+      <c r="C191" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="D191" t="s">
         <v>685</v>
       </c>
-      <c r="B187" t="s">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>686</v>
       </c>
-      <c r="C187" t="s">
+      <c r="B192" t="s">
         <v>687</v>
       </c>
-      <c r="D187" t="s">
+      <c r="C192" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="D192" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>689</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B193" t="s">
         <v>690</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C193" t="s">
         <v>691</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D193" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>693</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B194" t="s">
+        <v>690</v>
+      </c>
+      <c r="C194" t="s">
         <v>694</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D194" t="s">
         <v>695</v>
       </c>
-      <c r="D189" t="s">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B195" t="s">
         <v>697</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C195" t="s">
         <v>698</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D195" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>699</v>
       </c>
-      <c r="D190" t="s">
+      <c r="B196" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C196" t="s">
         <v>701</v>
       </c>
-      <c r="B191" t="s">
+      <c r="D196" t="s">
         <v>702</v>
       </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>703</v>
       </c>
-      <c r="D191" t="s">
+      <c r="B197" t="s">
+        <v>700</v>
+      </c>
+      <c r="C197" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="D197" t="s">
         <v>705</v>
       </c>
-      <c r="B192" t="s">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>706</v>
       </c>
-      <c r="C192" t="s">
+      <c r="B198" t="s">
+        <v>700</v>
+      </c>
+      <c r="C198" t="s">
         <v>707</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D198" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B199" t="s">
+        <v>700</v>
+      </c>
+      <c r="C199" t="s">
         <v>709</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D199" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>710</v>
       </c>
-      <c r="C193" t="s">
+      <c r="B200" t="s">
         <v>711</v>
       </c>
-      <c r="D193" t="s">
+      <c r="C200" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="D200" t="s">
         <v>713</v>
       </c>
-      <c r="B194" t="s">
-        <v>710</v>
-      </c>
-      <c r="C194" t="s">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>714</v>
       </c>
-      <c r="D194" t="s">
+      <c r="B201" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="C201" t="s">
         <v>716</v>
       </c>
-      <c r="B195" t="s">
+      <c r="D201" t="s">
         <v>717</v>
       </c>
-      <c r="C195" t="s">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>718</v>
       </c>
-      <c r="D195" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B202" t="s">
         <v>719</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C202" t="s">
         <v>720</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D202" t="s">
         <v>721</v>
       </c>
-      <c r="D196" t="s">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B203" t="s">
         <v>723</v>
       </c>
-      <c r="B197" t="s">
-        <v>720</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="C203" t="s">
         <v>724</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D203" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>726</v>
       </c>
-      <c r="B198" t="s">
-        <v>720</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="B204" t="s">
         <v>727</v>
       </c>
-      <c r="D198" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C204" t="s">
         <v>728</v>
       </c>
-      <c r="B199" t="s">
-        <v>720</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="D204" t="s">
         <v>729</v>
       </c>
-      <c r="D199" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>730</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B205" t="s">
         <v>731</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C205" t="s">
         <v>732</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D205" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B206" t="s">
         <v>734</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C206" t="s">
         <v>735</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D206" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>736</v>
       </c>
-      <c r="D201" t="s">
+      <c r="B207" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C207" t="s">
         <v>738</v>
       </c>
-      <c r="B202" t="s">
+      <c r="D207" t="s">
         <v>739</v>
       </c>
-      <c r="C202" t="s">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>740</v>
       </c>
-      <c r="D202" t="s">
+      <c r="B208" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="C208" t="s">
         <v>742</v>
       </c>
-      <c r="B203" t="s">
+      <c r="D208" t="s">
         <v>743</v>
       </c>
-      <c r="C203" t="s">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>744</v>
       </c>
-      <c r="D203" t="s">
+      <c r="B209" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C209" t="s">
         <v>746</v>
       </c>
-      <c r="B204" t="s">
+      <c r="D209" t="s">
         <v>747</v>
       </c>
-      <c r="C204" t="s">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>748</v>
       </c>
-      <c r="D204" t="s">
+      <c r="B210" t="s">
+        <v>745</v>
+      </c>
+      <c r="C210" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="D210" t="s">
         <v>750</v>
       </c>
-      <c r="B205" t="s">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>751</v>
       </c>
-      <c r="C205" t="s">
+      <c r="B211" t="s">
+        <v>745</v>
+      </c>
+      <c r="C211" t="s">
         <v>752</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D211" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>754</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B212" t="s">
+        <v>745</v>
+      </c>
+      <c r="C212" t="s">
         <v>755</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D212" t="s">
         <v>756</v>
       </c>
-      <c r="D206" t="s">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B213" t="s">
+        <v>745</v>
+      </c>
+      <c r="C213" t="s">
         <v>758</v>
       </c>
-      <c r="B207" t="s">
+      <c r="D213" t="s">
         <v>759</v>
       </c>
-      <c r="C207" t="s">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>760</v>
       </c>
-      <c r="D207" t="s">
+      <c r="B214" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="C214" t="s">
         <v>762</v>
       </c>
-      <c r="B208" t="s">
+      <c r="D214" t="s">
         <v>763</v>
       </c>
-      <c r="C208" t="s">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>764</v>
       </c>
-      <c r="D208" t="s">
+      <c r="B215" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="C215" t="s">
         <v>766</v>
       </c>
-      <c r="B209" t="s">
+      <c r="D215" t="s">
         <v>767</v>
       </c>
-      <c r="C209" t="s">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>768</v>
       </c>
-      <c r="D209" t="s">
+      <c r="B216" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="C216" t="s">
         <v>770</v>
       </c>
-      <c r="B210" t="s">
-        <v>767</v>
-      </c>
-      <c r="C210" t="s">
+      <c r="D216" t="s">
         <v>771</v>
       </c>
-      <c r="D210" t="s">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B217" t="s">
         <v>773</v>
       </c>
-      <c r="B211" t="s">
-        <v>767</v>
-      </c>
-      <c r="C211" t="s">
+      <c r="C217" t="s">
         <v>774</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D217" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>776</v>
       </c>
-      <c r="B212" t="s">
-        <v>767</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="B218" t="s">
         <v>777</v>
       </c>
-      <c r="D212" t="s">
+      <c r="C218" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="D218" t="s">
         <v>779</v>
       </c>
-      <c r="B213" t="s">
-        <v>767</v>
-      </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>780</v>
       </c>
-      <c r="D213" t="s">
+      <c r="B219" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="C219" t="s">
         <v>782</v>
       </c>
-      <c r="B214" t="s">
+      <c r="D219" t="s">
         <v>783</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>784</v>
       </c>
-      <c r="D214" t="s">
+      <c r="B220" t="s">
+        <v>781</v>
+      </c>
+      <c r="C220" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="D220" t="s">
         <v>786</v>
       </c>
-      <c r="B215" t="s">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>787</v>
       </c>
-      <c r="C215" t="s">
+      <c r="B221" t="s">
+        <v>781</v>
+      </c>
+      <c r="C221" t="s">
         <v>788</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D221" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>790</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B222" t="s">
+        <v>781</v>
+      </c>
+      <c r="C222" t="s">
         <v>791</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D222" t="s">
         <v>792</v>
       </c>
-      <c r="D216" t="s">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B223" t="s">
+        <v>781</v>
+      </c>
+      <c r="C223" t="s">
         <v>794</v>
       </c>
-      <c r="B217" t="s">
+      <c r="D223" t="s">
         <v>795</v>
       </c>
-      <c r="C217" t="s">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>796</v>
       </c>
-      <c r="D217" t="s">
+      <c r="B224" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="C224" t="s">
         <v>798</v>
       </c>
-      <c r="B218" t="s">
+      <c r="D224" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>799</v>
       </c>
-      <c r="C218" t="s">
+      <c r="B225" t="s">
         <v>800</v>
       </c>
-      <c r="D218" t="s">
+      <c r="C225" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="D225" t="s">
         <v>802</v>
       </c>
-      <c r="B219" t="s">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>803</v>
       </c>
-      <c r="C219" t="s">
+      <c r="B226" t="s">
         <v>804</v>
       </c>
-      <c r="D219" t="s">
+      <c r="C226" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="D226" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>806</v>
       </c>
-      <c r="B220" t="s">
-        <v>803</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="B227" t="s">
         <v>807</v>
       </c>
-      <c r="D220" t="s">
+      <c r="C227" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="D227" t="s">
         <v>809</v>
       </c>
-      <c r="B221" t="s">
-        <v>803</v>
-      </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>810</v>
       </c>
-      <c r="D221" t="s">
+      <c r="B228" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="C228" t="s">
         <v>812</v>
       </c>
-      <c r="B222" t="s">
-        <v>803</v>
-      </c>
-      <c r="C222" t="s">
+      <c r="D228" t="s">
         <v>813</v>
       </c>
-      <c r="D222" t="s">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B229" t="s">
         <v>815</v>
       </c>
-      <c r="B223" t="s">
-        <v>803</v>
-      </c>
-      <c r="C223" t="s">
+      <c r="C229" t="s">
         <v>816</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D229" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>818</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B230" t="s">
+        <v>815</v>
+      </c>
+      <c r="C230" t="s">
         <v>819</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D230" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>820</v>
       </c>
-      <c r="D224" t="s">
+      <c r="B231" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="C231" t="s">
         <v>822</v>
       </c>
-      <c r="B225" t="s">
+      <c r="D231" t="s">
         <v>823</v>
       </c>
-      <c r="C225" t="s">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>824</v>
       </c>
-      <c r="D225" t="s">
+      <c r="B232" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="C232" t="s">
         <v>826</v>
       </c>
-      <c r="B226" t="s">
+      <c r="D232" t="s">
         <v>827</v>
       </c>
-      <c r="C226" t="s">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>828</v>
       </c>
-      <c r="D226" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B233" t="s">
         <v>829</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C233" t="s">
         <v>830</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D233" t="s">
         <v>831</v>
       </c>
-      <c r="D227" t="s">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B234" t="s">
         <v>833</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C234" t="s">
         <v>834</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D234" t="s">
         <v>835</v>
       </c>
-      <c r="D228" t="s">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B235" t="s">
         <v>837</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C235" t="s">
         <v>838</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D235" t="s">
         <v>839</v>
       </c>
-      <c r="D229" t="s">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="B236" t="s">
         <v>841</v>
       </c>
-      <c r="B230" t="s">
-        <v>838</v>
-      </c>
-      <c r="C230" t="s">
+      <c r="C236" t="s">
         <v>842</v>
       </c>
-      <c r="D230" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="D236" t="s">
         <v>843</v>
       </c>
-      <c r="B231" t="s">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>844</v>
       </c>
-      <c r="C231" t="s">
+      <c r="B237" t="s">
         <v>845</v>
       </c>
-      <c r="D231" t="s">
+      <c r="C237" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="D237" t="s">
         <v>847</v>
       </c>
-      <c r="B232" t="s">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>848</v>
       </c>
-      <c r="C232" t="s">
+      <c r="B238" t="s">
         <v>849</v>
       </c>
-      <c r="D232" t="s">
+      <c r="C238" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="D238" t="s">
         <v>851</v>
       </c>
-      <c r="B233" t="s">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>852</v>
       </c>
-      <c r="C233" t="s">
+      <c r="B239" t="s">
+        <v>849</v>
+      </c>
+      <c r="C239" t="s">
         <v>853</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D239" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>855</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B240" t="s">
         <v>856</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C240" t="s">
         <v>857</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D240" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>859</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B241" t="s">
         <v>860</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C241" t="s">
         <v>861</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D241" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>863</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B242" t="s">
         <v>864</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C242" t="s">
         <v>865</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D242" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>867</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B243" t="s">
         <v>868</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C243" t="s">
         <v>869</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D243" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>871</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B244" t="s">
         <v>872</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C244" t="s">
         <v>873</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D244" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>875</v>
       </c>
-      <c r="B239" t="s">
-        <v>872</v>
-      </c>
-      <c r="C239" t="s">
+      <c r="B245" t="s">
         <v>876</v>
       </c>
-      <c r="D239" t="s">
+      <c r="C245" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="D245" t="s">
         <v>878</v>
       </c>
-      <c r="B240" t="s">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>879</v>
       </c>
-      <c r="C240" t="s">
+      <c r="B246" t="s">
         <v>880</v>
       </c>
-      <c r="D240" t="s">
+      <c r="C246" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="D246" t="s">
         <v>882</v>
       </c>
-      <c r="B241" t="s">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>883</v>
       </c>
-      <c r="C241" t="s">
+      <c r="B247" t="s">
         <v>884</v>
       </c>
-      <c r="D241" t="s">
+      <c r="C247" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="D247" t="s">
         <v>886</v>
       </c>
-      <c r="B242" t="s">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>887</v>
       </c>
-      <c r="C242" t="s">
+      <c r="B248" t="s">
         <v>888</v>
       </c>
-      <c r="D242" t="s">
+      <c r="C248" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="D248" t="s">
         <v>890</v>
       </c>
-      <c r="B243" t="s">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>891</v>
       </c>
-      <c r="C243" t="s">
+      <c r="B249" t="s">
         <v>892</v>
       </c>
-      <c r="D243" t="s">
+      <c r="C249" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="D249" t="s">
         <v>894</v>
       </c>
-      <c r="B244" t="s">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>895</v>
       </c>
-      <c r="C244" t="s">
+      <c r="B250" t="s">
         <v>896</v>
       </c>
-      <c r="D244" t="s">
+      <c r="C250" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="D250" t="s">
         <v>898</v>
       </c>
-      <c r="B245" t="s">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>899</v>
       </c>
-      <c r="C245" t="s">
+      <c r="B251" t="s">
         <v>900</v>
       </c>
-      <c r="D245" t="s">
+      <c r="C251" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="D251" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
         <v>902</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B252" t="s">
         <v>903</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C252" t="s">
         <v>904</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D252" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>906</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B253" t="s">
         <v>907</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C253" t="s">
         <v>908</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D253" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B254" t="s">
         <v>910</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C254" t="s">
         <v>911</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D254" t="s">
         <v>912</v>
       </c>
-      <c r="D248" t="s">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B255" t="s">
         <v>914</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C255" t="s">
         <v>915</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D255" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>916</v>
       </c>
-      <c r="D249" t="s">
+      <c r="B256" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="C256" t="s">
         <v>918</v>
       </c>
-      <c r="B250" t="s">
+      <c r="D256" t="s">
         <v>919</v>
       </c>
-      <c r="C250" t="s">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>920</v>
       </c>
-      <c r="D250" t="s">
+      <c r="B257" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="C257" t="s">
         <v>922</v>
       </c>
-      <c r="B251" t="s">
+      <c r="D257" t="s">
         <v>923</v>
       </c>
-      <c r="C251" t="s">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>924</v>
       </c>
-      <c r="D251" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B258" t="s">
         <v>925</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C258" t="s">
         <v>926</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D258" t="s">
         <v>927</v>
       </c>
-      <c r="D252" t="s">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B259" t="s">
+        <v>925</v>
+      </c>
+      <c r="C259" t="s">
         <v>929</v>
       </c>
-      <c r="B253" t="s">
+      <c r="D259" t="s">
         <v>930</v>
       </c>
-      <c r="C253" t="s">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>931</v>
       </c>
-      <c r="D253" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="B260" t="s">
+        <v>925</v>
+      </c>
+      <c r="C260" t="s">
         <v>932</v>
       </c>
-      <c r="B254" t="s">
+      <c r="D260" t="s">
         <v>933</v>
       </c>
-      <c r="C254" t="s">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>934</v>
       </c>
-      <c r="D254" t="s">
+      <c r="B261" t="s">
+        <v>925</v>
+      </c>
+      <c r="C261" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="D261" t="s">
         <v>936</v>
       </c>
-      <c r="B255" t="s">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>937</v>
       </c>
-      <c r="C255" t="s">
+      <c r="B262" t="s">
+        <v>925</v>
+      </c>
+      <c r="C262" t="s">
         <v>938</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D262" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>940</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B263" t="s">
         <v>941</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C263" t="s">
         <v>942</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D263" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>944</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B264" t="s">
         <v>945</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C264" t="s">
         <v>946</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D264" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>948</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B265" t="s">
         <v>949</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C265" t="s">
         <v>950</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D265" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B266" t="s">
         <v>952</v>
       </c>
-      <c r="B259" t="s">
-        <v>949</v>
-      </c>
-      <c r="C259" t="s">
+      <c r="C266" t="s">
+        <v>660</v>
+      </c>
+      <c r="D266" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>953</v>
       </c>
-      <c r="D259" t="s">
+      <c r="B267" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="C267" t="s">
         <v>955</v>
       </c>
-      <c r="B260" t="s">
-        <v>949</v>
-      </c>
-      <c r="C260" t="s">
+      <c r="D267" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>956</v>
       </c>
-      <c r="D260" t="s">
+      <c r="B268" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="C268" t="s">
         <v>958</v>
       </c>
-      <c r="B261" t="s">
-        <v>949</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="D268" t="s">
         <v>959</v>
       </c>
-      <c r="D261" t="s">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B269" t="s">
         <v>961</v>
       </c>
-      <c r="B262" t="s">
-        <v>949</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="C269" t="s">
         <v>962</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D269" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B270" t="s">
         <v>964</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C270" t="s">
         <v>965</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D270" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
         <v>966</v>
       </c>
-      <c r="D263" t="s">
+      <c r="B271" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="C271" t="s">
         <v>968</v>
       </c>
-      <c r="B264" t="s">
+      <c r="D271" t="s">
         <v>969</v>
       </c>
-      <c r="C264" t="s">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>970</v>
       </c>
-      <c r="D264" t="s">
+      <c r="B272" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="C272" t="s">
         <v>972</v>
       </c>
-      <c r="B265" t="s">
+      <c r="D272" t="s">
         <v>973</v>
       </c>
-      <c r="C265" t="s">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>974</v>
       </c>
-      <c r="D265" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="B273" t="s">
         <v>975</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C273" t="s">
         <v>976</v>
       </c>
-      <c r="C266" t="s">
-        <v>675</v>
-      </c>
-      <c r="D266" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="D273" t="s">
         <v>977</v>
       </c>
-      <c r="B267" t="s">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
         <v>978</v>
       </c>
-      <c r="C267" t="s">
+      <c r="B274" t="s">
         <v>979</v>
       </c>
-      <c r="D267" t="s">
+      <c r="C274" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="D274" t="s">
         <v>981</v>
       </c>
-      <c r="B268" t="s">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>982</v>
       </c>
-      <c r="C268" t="s">
+      <c r="B275" t="s">
         <v>983</v>
       </c>
-      <c r="D268" t="s">
+      <c r="C275" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="D275" t="s">
         <v>985</v>
       </c>
-      <c r="B269" t="s">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>986</v>
       </c>
-      <c r="C269" t="s">
+      <c r="B276" t="s">
         <v>987</v>
       </c>
-      <c r="D269" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="C276" t="s">
         <v>988</v>
       </c>
-      <c r="B270" t="s">
+      <c r="D276" t="s">
         <v>989</v>
       </c>
-      <c r="C270" t="s">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>990</v>
       </c>
-      <c r="D270" t="s">
+      <c r="B277" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="C277" t="s">
         <v>992</v>
       </c>
-      <c r="B271" t="s">
+      <c r="D277" t="s">
         <v>993</v>
       </c>
-      <c r="C271" t="s">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>994</v>
       </c>
-      <c r="D271" t="s">
+      <c r="B278" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="C278" t="s">
         <v>996</v>
       </c>
-      <c r="B272" t="s">
+      <c r="D278" t="s">
         <v>997</v>
       </c>
-      <c r="C272" t="s">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>998</v>
       </c>
-      <c r="D272" t="s">
+      <c r="B279" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="C279" t="s">
         <v>1000</v>
       </c>
-      <c r="B273" t="s">
+      <c r="D279" t="s">
         <v>1001</v>
       </c>
-      <c r="C273" t="s">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
         <v>1002</v>
       </c>
-      <c r="D273" t="s">
+      <c r="B280" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="C280" t="s">
         <v>1004</v>
       </c>
-      <c r="B274" t="s">
+      <c r="D280" t="s">
         <v>1005</v>
       </c>
-      <c r="C274" t="s">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
         <v>1006</v>
       </c>
-      <c r="D274" t="s">
+      <c r="B281" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="C281" t="s">
         <v>1008</v>
       </c>
-      <c r="B275" t="s">
+      <c r="D281" t="s">
         <v>1009</v>
       </c>
-      <c r="C275" t="s">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>1010</v>
       </c>
-      <c r="D275" t="s">
+      <c r="B282" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="C282" t="s">
         <v>1012</v>
       </c>
-      <c r="B276" t="s">
+      <c r="D282" t="s">
         <v>1013</v>
       </c>
-      <c r="C276" t="s">
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
         <v>1014</v>
       </c>
-      <c r="D276" t="s">
+      <c r="B283" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="C283" t="s">
         <v>1016</v>
       </c>
-      <c r="B277" t="s">
+      <c r="D283" t="s">
         <v>1017</v>
       </c>
-      <c r="C277" t="s">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>1018</v>
       </c>
-      <c r="D277" t="s">
+      <c r="B284" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="C284" t="s">
         <v>1020</v>
       </c>
-      <c r="B278" t="s">
+      <c r="D284" t="s">
         <v>1021</v>
       </c>
-      <c r="C278" t="s">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>1022</v>
       </c>
-      <c r="D278" t="s">
+      <c r="B285" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="C285" t="s">
         <v>1024</v>
       </c>
-      <c r="B279" t="s">
+      <c r="D285" t="s">
         <v>1025</v>
       </c>
-      <c r="C279" t="s">
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>1026</v>
       </c>
-      <c r="D279" t="s">
+      <c r="B286" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="C286" t="s">
         <v>1028</v>
       </c>
-      <c r="B280" t="s">
+      <c r="D286" t="s">
         <v>1029</v>
       </c>
-      <c r="C280" t="s">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>1030</v>
       </c>
-      <c r="D280" t="s">
+      <c r="B287" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="C287" t="s">
         <v>1032</v>
       </c>
-      <c r="B281" t="s">
+      <c r="D287" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>1033</v>
       </c>
-      <c r="C281" t="s">
+      <c r="B288" t="s">
         <v>1034</v>
       </c>
-      <c r="D281" t="s">
+      <c r="C288" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="D288" t="s">
         <v>1036</v>
       </c>
-      <c r="B282" t="s">
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
         <v>1037</v>
       </c>
-      <c r="C282" t="s">
+      <c r="B289" t="s">
         <v>1038</v>
       </c>
-      <c r="D282" t="s">
+      <c r="C289" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="D289" t="s">
         <v>1040</v>
       </c>
-      <c r="B283" t="s">
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
         <v>1041</v>
       </c>
-      <c r="C283" t="s">
+      <c r="B290" t="s">
         <v>1042</v>
       </c>
-      <c r="D283" t="s">
+      <c r="C290" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="D290" t="s">
         <v>1044</v>
       </c>
-      <c r="B284" t="s">
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>1045</v>
       </c>
-      <c r="C284" t="s">
+      <c r="B291" t="s">
         <v>1046</v>
       </c>
-      <c r="D284" t="s">
+      <c r="C291" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="D291" t="s">
         <v>1048</v>
       </c>
-      <c r="B285" t="s">
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>1049</v>
       </c>
-      <c r="C285" t="s">
+      <c r="B292" t="s">
         <v>1050</v>
       </c>
-      <c r="D285" t="s">
+      <c r="C292" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="D292" t="s">
         <v>1052</v>
       </c>
-      <c r="B286" t="s">
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
         <v>1053</v>
       </c>
-      <c r="C286" t="s">
+      <c r="B293" t="s">
         <v>1054</v>
       </c>
-      <c r="D286" t="s">
+      <c r="C293" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="D293" t="s">
         <v>1056</v>
       </c>
-      <c r="B287" t="s">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
         <v>1057</v>
       </c>
-      <c r="C287" t="s">
+      <c r="B294" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C294" t="s">
         <v>1058</v>
       </c>
-      <c r="D287" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="D294" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>1059</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B295" t="s">
         <v>1060</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C295" t="s">
         <v>1061</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D295" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>1063</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B296" t="s">
         <v>1064</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C296" t="s">
         <v>1065</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D296" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
         <v>1067</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B297" t="s">
         <v>1068</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C297" t="s">
         <v>1069</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D297" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
         <v>1071</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B298" t="s">
         <v>1072</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C298" t="s">
         <v>1073</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D298" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
         <v>1075</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B299" t="s">
         <v>1076</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C299" t="s">
         <v>1077</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D299" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>1079</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B300" t="s">
         <v>1080</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C300" t="s">
         <v>1081</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D300" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>1083</v>
       </c>
-      <c r="B294" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C294" t="s">
+      <c r="B301" t="s">
         <v>1084</v>
       </c>
-      <c r="D294" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="C301" t="s">
         <v>1085</v>
       </c>
-      <c r="B295" t="s">
+      <c r="D301" t="s">
         <v>1086</v>
       </c>
-      <c r="C295" t="s">
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>1087</v>
       </c>
-      <c r="D295" t="s">
+      <c r="B302" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="C302" t="s">
+        <v>542</v>
+      </c>
+      <c r="D302" t="s">
         <v>1089</v>
       </c>
-      <c r="B296" t="s">
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>1090</v>
       </c>
-      <c r="C296" t="s">
+      <c r="B303" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C303" t="s">
+        <v>660</v>
+      </c>
+      <c r="D303" t="s">
         <v>1091</v>
       </c>
-      <c r="D296" t="s">
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="B304" t="s">
         <v>1093</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C304" t="s">
         <v>1094</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D304" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>1095</v>
       </c>
-      <c r="D297" t="s">
+      <c r="B305" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="C305" t="s">
+        <v>660</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>1097</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B306" t="s">
         <v>1098</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C306" t="s">
         <v>1099</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D306" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B307" t="s">
         <v>1101</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C307" t="s">
+        <v>908</v>
+      </c>
+      <c r="D307" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
         <v>1102</v>
       </c>
-      <c r="C299" t="s">
+      <c r="B308" t="s">
         <v>1103</v>
       </c>
-      <c r="D299" t="s">
+      <c r="C308" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="D308" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
         <v>1105</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B309" t="s">
         <v>1106</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C309" t="s">
         <v>1107</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D309" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B310" t="s">
         <v>1109</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C310" t="s">
         <v>1110</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D310" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
         <v>1111</v>
       </c>
-      <c r="D301" t="s">
+      <c r="B311" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="C311" t="s">
         <v>1113</v>
       </c>
-      <c r="B302" t="s">
+      <c r="D311" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
         <v>1114</v>
       </c>
-      <c r="C302" t="s">
-        <v>555</v>
-      </c>
-      <c r="D302" t="s">
+      <c r="B312" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="C312" t="s">
         <v>1116</v>
       </c>
-      <c r="B303" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C303" t="s">
-        <v>675</v>
-      </c>
-      <c r="D303" t="s">
+      <c r="D312" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="B313" t="s">
         <v>1118</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C313" t="s">
         <v>1119</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D313" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>1120</v>
       </c>
-      <c r="D304" t="s">
+      <c r="B314" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="C314" t="s">
         <v>1122</v>
       </c>
-      <c r="B305" t="s">
+      <c r="D314" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>1123</v>
       </c>
-      <c r="C305" t="s">
-        <v>675</v>
-      </c>
-      <c r="D305" t="s">
+      <c r="B315" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="C315" t="s">
         <v>1125</v>
       </c>
-      <c r="B306" t="s">
+      <c r="D315" s="2" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
         <v>1126</v>
       </c>
-      <c r="C306" t="s">
+      <c r="B316" t="s">
         <v>1127</v>
       </c>
-      <c r="D306" t="s">
+      <c r="C316" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="D316" t="s">
         <v>1129</v>
       </c>
-      <c r="B307" t="s">
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
         <v>1130</v>
       </c>
-      <c r="C307" t="s">
-        <v>931</v>
-      </c>
-      <c r="D307" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="B317" t="s">
         <v>1131</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C317" t="s">
         <v>1132</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D317" t="s">
         <v>1133</v>
       </c>
-      <c r="D308" t="s">
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="B318" t="s">
         <v>1135</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C318" t="s">
         <v>1136</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D318" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>1137</v>
       </c>
-      <c r="D309" t="s">
+      <c r="B319" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="C319" t="s">
         <v>1139</v>
       </c>
-      <c r="B310" t="s">
+      <c r="D319" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>1140</v>
       </c>
-      <c r="C310" t="s">
+      <c r="B320" t="s">
         <v>1141</v>
       </c>
-      <c r="D310" t="s">
+      <c r="C320" t="s">
+        <v>908</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="B321" t="s">
         <v>1143</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C321" t="s">
+        <v>908</v>
+      </c>
+      <c r="D321" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>1144</v>
       </c>
-      <c r="C311" t="s">
+      <c r="B322" t="s">
         <v>1145</v>
       </c>
-      <c r="D311" t="s">
+      <c r="C322" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="D322" t="s">
         <v>1147</v>
       </c>
-      <c r="B312" t="s">
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>1148</v>
       </c>
-      <c r="C312" t="s">
+      <c r="B323" t="s">
         <v>1149</v>
       </c>
-      <c r="D312" t="s">
+      <c r="C323" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="D323" t="s">
         <v>1151</v>
       </c>
-      <c r="B313" t="s">
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>1152</v>
       </c>
-      <c r="C313" t="s">
+      <c r="B324" t="s">
         <v>1153</v>
       </c>
-      <c r="D313" t="s">
+      <c r="C324" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="D324" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
         <v>1155</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B325" t="s">
         <v>1156</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C325" t="s">
         <v>1157</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D325" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="B326" t="s">
         <v>1159</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C326" t="s">
         <v>1160</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D326" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>1161</v>
       </c>
-      <c r="D315" t="s">
+      <c r="B327" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="C327" t="s">
         <v>1163</v>
       </c>
-      <c r="B316" t="s">
+      <c r="D327" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
         <v>1164</v>
       </c>
-      <c r="C316" t="s">
+      <c r="B328" t="s">
         <v>1165</v>
       </c>
-      <c r="D316" t="s">
+      <c r="C328" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="D328" t="s">
         <v>1167</v>
       </c>
-      <c r="B317" t="s">
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>1168</v>
       </c>
-      <c r="C317" t="s">
+      <c r="B329" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C329" t="s">
         <v>1169</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D329" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>1171</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B330" t="s">
         <v>1172</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C330" t="s">
         <v>1173</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D330" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
         <v>1175</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B331" t="s">
         <v>1176</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C331" t="s">
         <v>1177</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D331" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>1179</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B332" t="s">
         <v>1180</v>
       </c>
-      <c r="C320" t="s">
-        <v>931</v>
-      </c>
-      <c r="D320" t="s">
+      <c r="C332" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="D332" t="s">
         <v>1182</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C321" t="s">
-        <v>931</v>
-      </c>
-      <c r="D321" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D327" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D328" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D330" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D331" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1226</v>
       </c>
     </row>
   </sheetData>
